--- a/宏观体系打分.xlsx
+++ b/宏观体系打分.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haochen\Desktop\择时指标体系\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\dinghaochen\Desktop\择时指标体系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EE4DC2-077B-4207-9C1F-73EA434C9B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +46,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
@@ -113,8 +112,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -391,11 +390,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B294"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A269" workbookViewId="0">
-      <selection activeCell="L288" sqref="L288"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2756,6 +2755,38 @@
         <v>0.746</v>
       </c>
     </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" s="7">
+        <v>45984</v>
+      </c>
+      <c r="B295" s="6">
+        <v>0.80500000000000005</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" s="7">
+        <v>45991</v>
+      </c>
+      <c r="B296" s="6">
+        <v>0.64900000000000002</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" s="7">
+        <v>45998</v>
+      </c>
+      <c r="B297" s="6">
+        <v>0.73199999999999998</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" s="7">
+        <v>46005</v>
+      </c>
+      <c r="B298" s="6">
+        <v>0.76300000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
